--- a/biology/Botanique/Le_Bois_dont_les_rêves_sont_faits/Le_Bois_dont_les_rêves_sont_faits.xlsx
+++ b/biology/Botanique/Le_Bois_dont_les_rêves_sont_faits/Le_Bois_dont_les_rêves_sont_faits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Bois_dont_les_r%C3%AAves_sont_faits</t>
+          <t>Le_Bois_dont_les_rêves_sont_faits</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bois dont les rêves sont faits est un documentaire français réalisé par Claire Simon et sorti en 2016.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Bois_dont_les_r%C3%AAves_sont_faits</t>
+          <t>Le_Bois_dont_les_rêves_sont_faits</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Documentaire sur le Bois de Vincennes, ceux qui y vivent, ceux qui le traversent, ce qu'il s'y passe.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Bois_dont_les_r%C3%AAves_sont_faits</t>
+          <t>Le_Bois_dont_les_rêves_sont_faits</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Bois dont les rêves sont faits
 Réalisation : Claire Simon
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Bois_dont_les_r%C3%AAves_sont_faits</t>
+          <t>Le_Bois_dont_les_rêves_sont_faits</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Sélections en festivals</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2016 : Festival international du cinéma indépendant de Lisbonne
 2016 : Festival international du cinéma indépendant de Buenos Aires</t>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Bois_dont_les_r%C3%AAves_sont_faits</t>
+          <t>Le_Bois_dont_les_rêves_sont_faits</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le Bois dont les rêves sont faits a été classé n°10 dans le Top 10 des Cahiers du cinéma pour l'année 2016[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Bois dont les rêves sont faits a été classé n°10 dans le Top 10 des Cahiers du cinéma pour l'année 2016.</t>
         </is>
       </c>
     </row>
